--- a/Figures.xlsx
+++ b/Figures.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/mc5196_cumc_columbia_edu/Documents/projects/PDAC_Liver_Lung/doc/PDAC_tropism_paper/data_deposition/Github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/mc5196_cumc_columbia_edu/Documents/projects/Github_repositories/PDAC_tropism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{046257D1-79F3-744D-8190-DC5350F84A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67DF0C47-3B06-FA42-88A8-2918C0F7EE70}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="8_{046257D1-79F3-744D-8190-DC5350F84A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12CCC5C6-B52E-C54B-96F4-F3102E2FAFEE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{1872E19D-25C1-FD4A-8CED-196D74137F12}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
-  <si>
-    <t>panel</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>figure</t>
   </si>
@@ -47,52 +44,64 @@
     <t>script</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>Ex1</t>
-  </si>
-  <si>
-    <t>Ex2</t>
-  </si>
-  <si>
-    <t>Ex3</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>Easy way: open a Terminl and change directory to 'scripts/Fig_3/'; make sure 'Misc' is inside 'scripts'. Type in 'jupyter notebook' and open 'contact_tracing_paper.ipynb' from within the web browser. Install the packages listed in this script and 'contactTracing_library.py' as well as circos (refere to https://circos.ca/). Run cells in 'contact_tracing_paper.ipynb'. It should create 'output' directory inside 'Fig_3' with necessary files for generating circos plot as well as the circos plot. If the script throws 'FileNotFoundError', go to 'output' open 'circos.conf' and remove 'angle_offset=-115' from the end of the file. Then, open a new Terminal session, redirect it to 'output' and type in 'circos' that should generate the circos plot inside 'output'. Hard way: follow their instructions on ContactTracing's GitHub page and replace their jupyter notebook with 'contact_tracing_paper.ipynb' and 'contactTracing_library.py'.</t>
+    <t>How to run Fig. scripts? First, clone this GitHub repository (https://github.com/IzarLab/PDAC_tropism.git) to your local disk space (like Documnets). Then, download 'compartments.RData.zip' and 'Misc.RData.zip' from Gene Expression Omnibus cited in the paper. Unzip them and move 'Misc' and 'compartments' to the directory (like 'Documents/PDAC_tropism/') containing 'scripts'. Now this directory must contain three folders: 'scripts', 'Misc' and 'compartments'. Open RStudio (or any other R-enabled IDE) and set current directory, setwd(), to 'Documents/PDAC_tropism/'. Each 'Fig_x_DONE' folder contains some R scripts mnemonic for what they plot.</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>run scripts/Fig_1_DONE</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>run scripts/Fig_2_DONE</t>
+  </si>
+  <si>
+    <t>run scripts/Fig_3_DONE</t>
+  </si>
+  <si>
+    <t>run scripts/Fig_4_DONE</t>
+  </si>
+  <si>
+    <t>run scripts/Fig_5_DONE</t>
+  </si>
+  <si>
+    <t>run scripts/Fig_6_DONE</t>
+  </si>
+  <si>
+    <t>manually created</t>
+  </si>
+  <si>
+    <t>run scripts/Fig_S2_DONE</t>
+  </si>
+  <si>
+    <t>run scripts/Fig_S3_DONE</t>
+  </si>
+  <si>
+    <t>run scripts/Fig_S4_DONE</t>
+  </si>
+  <si>
+    <t>run scripts/Fig_S5_DONE</t>
+  </si>
+  <si>
+    <t>To generate the circos plot there are two ways. Easy way: open a Terminl and change directory to 'scripts/Fig_3/'; make sure 'Misc' is inside 'scripts'. Type in 'jupyter notebook' and open 'contact_tracing_paper.ipynb' from within the web browser. Install the packages listed in this script and 'contactTracing_library.py' as well as circos (refere to https://circos.ca/). Run cells in 'contact_tracing_paper.ipynb'. It should create 'output' directory inside 'Fig_3' with necessary files for generating circos plot as well as the circos plot. If the script throws 'FileNotFoundError', go to 'output' open 'circos.conf' and remove 'angle_offset=-115' from the end of the file. Then, open a new Terminal session, redirect it to 'output' and type in 'circos' that should generate the circos plot inside 'output'. Hard way: follow their instructions on ContactTracing's GitHub page and replace their jupyter notebook with 'contact_tracing_paper.ipynb' and 'contactTracing_library.py'.</t>
+  </si>
+  <si>
+    <t>For generating the WGS CNA map refer to PN14_S134_L002_tumor_genomeWide_n0.8-p2.pdf which contains parameters necessary to run ichorCNA on lpWG data. lpWGS data is available on Gene Expression Omnibus cited in the paper.</t>
   </si>
 </sst>
 </file>
@@ -148,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -157,6 +166,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -176,14 +191,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,7 +232,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -327,7 +338,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,7 +480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,358 +488,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B4320F-D015-3542-9872-FFA0741A4278}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>3</v>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>3</v>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>5</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>5</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>5</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>6</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>7</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>8</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Figures.xlsx
+++ b/Figures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/mc5196_cumc_columbia_edu/Documents/projects/Github_repositories/PDAC_tropism/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/mc5196_cumc_columbia_edu/Documents/projects/PDAC_Liver_Lung/doc/PDAC_tropism_paper/data_deposition/Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="8_{046257D1-79F3-744D-8190-DC5350F84A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12CCC5C6-B52E-C54B-96F4-F3102E2FAFEE}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{046257D1-79F3-744D-8190-DC5350F84A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB43B1ED-D81D-4448-9EA7-700AAF7B7FBA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{1872E19D-25C1-FD4A-8CED-196D74137F12}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{1872E19D-25C1-FD4A-8CED-196D74137F12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>figure</t>
   </si>
@@ -59,9 +59,6 @@
     <t>S4</t>
   </si>
   <si>
-    <t>S5</t>
-  </si>
-  <si>
     <t>run scripts/Fig_1_DONE</t>
   </si>
   <si>
@@ -95,13 +92,10 @@
     <t>run scripts/Fig_S4_DONE</t>
   </si>
   <si>
-    <t>run scripts/Fig_S5_DONE</t>
-  </si>
-  <si>
-    <t>To generate the circos plot there are two ways. Easy way: open a Terminl and change directory to 'scripts/Fig_3/'; make sure 'Misc' is inside 'scripts'. Type in 'jupyter notebook' and open 'contact_tracing_paper.ipynb' from within the web browser. Install the packages listed in this script and 'contactTracing_library.py' as well as circos (refere to https://circos.ca/). Run cells in 'contact_tracing_paper.ipynb'. It should create 'output' directory inside 'Fig_3' with necessary files for generating circos plot as well as the circos plot. If the script throws 'FileNotFoundError', go to 'output' open 'circos.conf' and remove 'angle_offset=-115' from the end of the file. Then, open a new Terminal session, redirect it to 'output' and type in 'circos' that should generate the circos plot inside 'output'. Hard way: follow their instructions on ContactTracing's GitHub page and replace their jupyter notebook with 'contact_tracing_paper.ipynb' and 'contactTracing_library.py'.</t>
-  </si>
-  <si>
     <t>For generating the WGS CNA map refer to PN14_S134_L002_tumor_genomeWide_n0.8-p2.pdf which contains parameters necessary to run ichorCNA on lpWG data. lpWGS data is available on Gene Expression Omnibus cited in the paper.</t>
+  </si>
+  <si>
+    <t>To generate the circos plot there are two ways. Easy way: open a Terminl and change directory to 'scripts/Fig_3/'; make sure 'Misc' is beside 'scripts'. Type in 'jupyter notebook' and open 'contact_tracing_paper.ipynb' from within the web browser. Install the packages listed in this script and 'contactTracing_library.py' as well as circos (refere to https://circos.ca/). Run cells in 'contact_tracing_paper.ipynb'. It should create 'output' directory inside 'Fig_3' with necessary files for generating circos plot as well as the circos plot. If the script throws 'FileNotFoundError', go to 'output' open 'circos.conf' and remove 'angle_offset=-115' from the bottom of the file. Then, open a new Terminal session, redirect it to 'output' and type in 'circos' that should generate the circos plot inside 'output'. Hard way: follow their instructions on ContactTracing's GitHub page and replace their jupyter notebook with 'contact_tracing_paper.ipynb' and 'contactTracing_library.py'.</t>
   </si>
 </sst>
 </file>
@@ -157,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -169,9 +163,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -488,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B4320F-D015-3542-9872-FFA0741A4278}">
-  <dimension ref="A2:C15"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -523,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -531,11 +522,11 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -543,38 +534,36 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -582,24 +571,23 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5"/>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -607,19 +595,9 @@
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Figures.xlsx
+++ b/Figures.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/mc5196_cumc_columbia_edu/Documents/projects/PDAC_Liver_Lung/doc/PDAC_tropism_paper/data_deposition/Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="8_{046257D1-79F3-744D-8190-DC5350F84A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB43B1ED-D81D-4448-9EA7-700AAF7B7FBA}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="8_{046257D1-79F3-744D-8190-DC5350F84A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCD2A8BB-A1BE-C141-BC6D-36127C1B6D3F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{1872E19D-25C1-FD4A-8CED-196D74137F12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,73 +36,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>figure</t>
   </si>
   <si>
-    <t>script</t>
-  </si>
-  <si>
-    <t>How to run Fig. scripts? First, clone this GitHub repository (https://github.com/IzarLab/PDAC_tropism.git) to your local disk space (like Documnets). Then, download 'compartments.RData.zip' and 'Misc.RData.zip' from Gene Expression Omnibus cited in the paper. Unzip them and move 'Misc' and 'compartments' to the directory (like 'Documents/PDAC_tropism/') containing 'scripts'. Now this directory must contain three folders: 'scripts', 'Misc' and 'compartments'. Open RStudio (or any other R-enabled IDE) and set current directory, setwd(), to 'Documents/PDAC_tropism/'. Each 'Fig_x_DONE' folder contains some R scripts mnemonic for what they plot.</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>run scripts/Fig_1_DONE</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>run scripts/Fig_2_DONE</t>
-  </si>
-  <si>
-    <t>run scripts/Fig_3_DONE</t>
-  </si>
-  <si>
-    <t>run scripts/Fig_4_DONE</t>
-  </si>
-  <si>
-    <t>run scripts/Fig_5_DONE</t>
-  </si>
-  <si>
-    <t>run scripts/Fig_6_DONE</t>
-  </si>
-  <si>
     <t>manually created</t>
   </si>
   <si>
-    <t>run scripts/Fig_S2_DONE</t>
-  </si>
-  <si>
-    <t>run scripts/Fig_S3_DONE</t>
-  </si>
-  <si>
-    <t>run scripts/Fig_S4_DONE</t>
-  </si>
-  <si>
-    <t>For generating the WGS CNA map refer to PN14_S134_L002_tumor_genomeWide_n0.8-p2.pdf which contains parameters necessary to run ichorCNA on lpWG data. lpWGS data is available on Gene Expression Omnibus cited in the paper.</t>
-  </si>
-  <si>
-    <t>To generate the circos plot there are two ways. Easy way: open a Terminl and change directory to 'scripts/Fig_3/'; make sure 'Misc' is beside 'scripts'. Type in 'jupyter notebook' and open 'contact_tracing_paper.ipynb' from within the web browser. Install the packages listed in this script and 'contactTracing_library.py' as well as circos (refere to https://circos.ca/). Run cells in 'contact_tracing_paper.ipynb'. It should create 'output' directory inside 'Fig_3' with necessary files for generating circos plot as well as the circos plot. If the script throws 'FileNotFoundError', go to 'output' open 'circos.conf' and remove 'angle_offset=-115' from the bottom of the file. Then, open a new Terminal session, redirect it to 'output' and type in 'circos' that should generate the circos plot inside 'output'. Hard way: follow their instructions on ContactTracing's GitHub page and replace their jupyter notebook with 'contact_tracing_paper.ipynb' and 'contactTracing_library.py'.</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Ext1</t>
+  </si>
+  <si>
+    <t>Ext2</t>
+  </si>
+  <si>
+    <t>Ext3</t>
+  </si>
+  <si>
+    <t>Ext4</t>
+  </si>
+  <si>
+    <t>Ext5</t>
+  </si>
+  <si>
+    <t>Ext6</t>
+  </si>
+  <si>
+    <t>For generating the WGS CNA map refer to PN14_S134_L002_tumor.cna.seg and PN14_S134_L002_tumor.seg available on GEO lpWGS repository (accession number given in the paper). 'Fig_2/c.pdf' contains parameters used to run ichorCNA on this patient sample.</t>
+  </si>
+  <si>
+    <t>To generate the circos plot (Fig. 4i) there are two ways. Easy way: open a Terminl and change the directory to 'scripts/Fig_4/'; make sure 'Misc' is next to 'scripts'. Type in 'jupyter notebook' and open 'i.ipynb' from within the web browser. Install the packages listed in 'i.ipynb', 'i.py' and also install circos (refere to https://circos.ca/). Run cells in 'i.ipynb'. It should create 'output' directory inside 'Fig_4' with necessary files for generating circos plot as well as probably the circos plot. If the script throws 'FileNotFoundError', then open a new Terminal session, redirect it to 'output' and type in 'circos' that should generate the 'circos.svg' inside 'output'. Hard way: follow their instructions on ContactTracing's GitHub page and replace their jupyter notebook with 'contact_tracing_paper.ipynb' and 'contactTracing_library.py'.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,29 +87,26 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,25 +121,125 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -180,6 +250,142 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11545</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>115453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723687</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>126997</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB76FB4-8B22-3EB9-F1A8-B48245037DE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11545" y="115453"/>
+          <a:ext cx="5153595" cy="1657578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>To run figure scripts: First, clone this GitHub repository  (https://github.com/IzarLab/PDAC_tropism.git) to your local disk space (like in</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Documnets). Then, download 'compartments.RData.zip' and 'Misc.RData.zip' from Gene Expression Omnibus cited in the paper. Unzip them and move 'Misc' and 'compartments' to the directory (like 'Documents/PDAC_tropism/') containing 'scripts'. Now this directory must contain three folders: 'scripts', 'Misc' and 'compartments'. Open RStudio (or any other R-enabled IDE) and set current directory, setwd(), to 'Documents/PDAC_tropism/'. Each 'Fig_x' folder contains some R scripts corresponding to each figure</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> panel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73B3363F-ACAB-A943-954E-A0243CC390CF}" name="Table1" displayName="Table1" ref="A10:B22" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A10:B22" xr:uid="{73B3363F-ACAB-A943-954E-A0243CC390CF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D9280963-5589-3A48-B287-822CF5BA590F}" name="figure" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0CBB46D2-817D-E045-B903-4F5FD3CAFC75}" name="Notes" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,127 +685,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B4320F-D015-3542-9872-FFA0741A4278}">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B22" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>